--- a/biology/Médecine/CHU_Ibn_Sina/CHU_Ibn_Sina.xlsx
+++ b/biology/Médecine/CHU_Ibn_Sina/CHU_Ibn_Sina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Centre hospitalier universitaire Ibn Sina (appelé CHU Ibn Sina / CHUIS ) est le plus grand centre hospitalier universitaire du Maroc. 
 Il est situé dans la capitale Rabat. 
-Le CHU Ibn Sina est placé sous la tutelle du Ministère de la Santé[1],[2],[3].
+Le CHU Ibn Sina est placé sous la tutelle du Ministère de la Santé.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Hôpitaux et établissements de santé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le centre hospitalier universitaire Ibn Sina comprend 10 hôpitaux et institutions de soins de santé et d'hospitalisation, qui sont:
 Hôpital Ibn Sina
@@ -553,9 +567,11 @@
           <t>Capacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CHU Ibn Sina est le plus grand CHU du Maroc, avec une capacité de 2 347 lits, et 328 730 consultations médicales, 30 054 chirurgies et 25 379 accouchements sont assurés chaque année[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CHU Ibn Sina est le plus grand CHU du Maroc, avec une capacité de 2 347 lits, et 328 730 consultations médicales, 30 054 chirurgies et 25 379 accouchements sont assurés chaque année.
 </t>
         </is>
       </c>
